--- a/Assets/配置表/Excels/weapons.xlsx
+++ b/Assets/配置表/Excels/weapons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\GGJ2024\Assets\配置表\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CCC392-8395-4767-ADA2-E39FB8872E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBC941A-4AC6-4529-88D8-A657C4E8E948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="276" yWindow="2340" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -492,10 +492,10 @@
         <v>1</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>50</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">

--- a/Assets/配置表/Excels/weapons.xlsx
+++ b/Assets/配置表/Excels/weapons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\GGJ2024\Assets\配置表\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBC941A-4AC6-4529-88D8-A657C4E8E948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CA5EEB-14FA-45AC-AC3D-70DAE41E5FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="2340" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7776" yWindow="2796" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>10</v>

--- a/Assets/配置表/Excels/weapons.xlsx
+++ b/Assets/配置表/Excels/weapons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\GGJ2024\Assets\配置表\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CA5EEB-14FA-45AC-AC3D-70DAE41E5FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D08F7-3421-49C0-BC49-59DD17580F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7776" yWindow="2796" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -30,10 +30,6 @@
     <t>名称</t>
   </si>
   <si>
-    <t>弯刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>炸弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,16 +50,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>套索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡尔卡诺m91/38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>额外伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回旋镖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个文档好像有毛病</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>恶</t>
+  </si>
+  <si>
+    <t>啊</t>
   </si>
 </sst>
 </file>
@@ -427,18 +439,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,44 +459,50 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -492,41 +511,47 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -537,25 +562,31 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
